--- a/Data/PokemonCompleteStats.xlsx
+++ b/Data/PokemonCompleteStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianki\Desktop\PkmnPowerScaling\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FF1DE4-637D-4300-AF76-A6321C54C5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABC7ADF-C68D-4D77-A8B6-884B1F13C2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{D742EBE7-0BBB-4DB2-9649-391E04F8F543}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{D742EBE7-0BBB-4DB2-9649-391E04F8F543}"/>
   </bookViews>
   <sheets>
     <sheet name="PokemonCompleteStats" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="1103">
   <si>
     <t>pokemon_id</t>
   </si>
@@ -3338,6 +3338,12 @@
   </si>
   <si>
     <t>Most Common typings Per Generation</t>
+  </si>
+  <si>
+    <t>Sum Of all Generations</t>
+  </si>
+  <si>
+    <t>Percentage</t>
   </si>
 </sst>
 </file>
@@ -3787,7 +3793,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -3830,8 +3836,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3858,8 +3865,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -3899,6 +3908,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -46871,11 +46881,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF63CBEC-E86B-41B9-BFB9-9869BC696BC1}">
   <dimension ref="B2:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="20" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
@@ -47646,20 +47661,165 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
     </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="J13" s="1"/>
+    </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
+      <c r="B14" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C14" s="1">
+        <f>SUM(C3:C11)</f>
+        <v>132</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" ref="D14:T14" si="0">SUM(D3:D11)</f>
+        <v>72</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C15" s="11">
+        <f>C14/SUM($C$14:$T$14)</f>
+        <v>8.4507042253521125E-2</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" ref="D15:T15" si="1">D14/SUM($C$14:$T$14)</f>
+        <v>4.6094750320102434E-2</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="1"/>
+        <v>7.0422535211267609E-2</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="1"/>
+        <v>5.3137003841229193E-2</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" si="1"/>
+        <v>4.801536491677337E-2</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="1"/>
+        <v>4.7375160051216392E-2</v>
+      </c>
+      <c r="I15" s="11">
+        <f t="shared" si="1"/>
+        <v>5.9539052496798979E-2</v>
+      </c>
+      <c r="J15" s="11">
+        <f t="shared" si="1"/>
+        <v>4.1613316261203584E-2</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" si="1"/>
+        <v>4.2893725992317541E-2</v>
+      </c>
+      <c r="L15" s="11">
+        <f t="shared" si="1"/>
+        <v>5.2496798975672214E-2</v>
+      </c>
+      <c r="M15" s="11">
+        <f t="shared" si="1"/>
+        <v>9.923175416133162E-2</v>
+      </c>
+      <c r="N15" s="11">
+        <f t="shared" si="1"/>
+        <v>8.1946222791293211E-2</v>
+      </c>
+      <c r="O15" s="11">
+        <f t="shared" si="1"/>
+        <v>4.4174135723431499E-2</v>
+      </c>
+      <c r="P15" s="11">
+        <f t="shared" si="1"/>
+        <v>6.7221510883482716E-2</v>
+      </c>
+      <c r="Q15" s="11">
+        <f t="shared" si="1"/>
+        <v>3.0729833546734954E-2</v>
+      </c>
+      <c r="R15" s="11">
+        <f t="shared" si="1"/>
+        <v>4.4814340588988477E-2</v>
+      </c>
+      <c r="S15" s="11">
+        <f t="shared" si="1"/>
+        <v>4.4174135723431499E-2</v>
+      </c>
+      <c r="T15" s="11">
+        <f t="shared" si="1"/>
+        <v>4.1613316261203584E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="1"/>
@@ -47685,7 +47845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EA4B76-4915-48B5-BBD1-C489F616804C}">
   <dimension ref="B1:T18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
